--- a/Code/Results/Cases/Case_2_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.73891699739866</v>
+        <v>20.23723175994358</v>
       </c>
       <c r="C2">
-        <v>12.71071103882107</v>
+        <v>9.452954855597929</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.196598554428228</v>
+        <v>14.37370296477407</v>
       </c>
       <c r="F2">
-        <v>31.48041306591313</v>
+        <v>40.91970542759623</v>
       </c>
       <c r="G2">
-        <v>38.3139867907757</v>
+        <v>42.46241287319923</v>
       </c>
       <c r="H2">
-        <v>11.78628544129007</v>
+        <v>17.44494420847082</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.968067412258731</v>
+        <v>8.357119370047588</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.22148174002797</v>
+        <v>12.40326378114587</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.09668747681925</v>
+        <v>18.66876304833223</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.19968606757329</v>
+        <v>19.80372883384151</v>
       </c>
       <c r="C3">
-        <v>12.01944555150665</v>
+        <v>9.156335475268996</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.178125836997705</v>
+        <v>14.39343620801631</v>
       </c>
       <c r="F3">
-        <v>30.49836842888722</v>
+        <v>40.88006059933464</v>
       </c>
       <c r="G3">
-        <v>36.74869584908947</v>
+        <v>42.30234282351739</v>
       </c>
       <c r="H3">
-        <v>11.62953589312281</v>
+        <v>17.47861192361294</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.041409858615291</v>
+        <v>8.37818912054585</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.9772124316631</v>
+        <v>12.38732978367635</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.35646422799891</v>
+        <v>18.74107769181861</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.21588991047537</v>
+        <v>19.53740505981618</v>
       </c>
       <c r="C4">
-        <v>11.57623232400675</v>
+        <v>8.967433267183049</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.169260261696438</v>
+        <v>14.40680180193981</v>
       </c>
       <c r="F4">
-        <v>29.91042578090322</v>
+        <v>40.86648542452524</v>
       </c>
       <c r="G4">
-        <v>35.80488262991205</v>
+        <v>42.21920803977655</v>
       </c>
       <c r="H4">
-        <v>11.54404556195588</v>
+        <v>17.50324745534015</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.087120917123988</v>
+        <v>8.391715303096193</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.827007074030955</v>
+        <v>12.37926835209663</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.5185637652404</v>
+        <v>18.78745510616503</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.80414839121419</v>
+        <v>19.42899897456628</v>
       </c>
       <c r="C5">
-        <v>11.39094698586795</v>
+        <v>8.88881474472864</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.166261119645156</v>
+        <v>14.41256314726464</v>
       </c>
       <c r="F5">
-        <v>29.67482838754946</v>
+        <v>40.86366257474394</v>
       </c>
       <c r="G5">
-        <v>35.42502937601883</v>
+        <v>42.18915738528109</v>
       </c>
       <c r="H5">
-        <v>11.51183179730664</v>
+        <v>17.51428024435513</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.105935687120162</v>
+        <v>8.397376067721451</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.765817609856342</v>
+        <v>12.37641888799811</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.58532008442153</v>
+        <v>18.80685291464309</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.73512968808028</v>
+        <v>19.41101043527</v>
       </c>
       <c r="C6">
-        <v>11.35990015081215</v>
+        <v>8.875663203447932</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.165799912394009</v>
+        <v>14.41353884260364</v>
       </c>
       <c r="F6">
-        <v>29.63595513919872</v>
+        <v>40.86335747507965</v>
       </c>
       <c r="G6">
-        <v>35.36225509721122</v>
+        <v>42.184399075298</v>
       </c>
       <c r="H6">
-        <v>11.50663877948591</v>
+        <v>17.51617214906753</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.109071629753138</v>
+        <v>8.398325033011906</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.755660713906826</v>
+        <v>12.37597211927367</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.59644847770558</v>
+        <v>18.81010407438154</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.21038067365747</v>
+        <v>19.53594234386314</v>
       </c>
       <c r="C7">
-        <v>11.5737523391401</v>
+        <v>8.966379537682661</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.169217341542735</v>
+        <v>14.40687822619976</v>
       </c>
       <c r="F7">
-        <v>29.90723197601596</v>
+        <v>40.86643638484026</v>
       </c>
       <c r="G7">
-        <v>35.79973996047747</v>
+        <v>42.21878724968741</v>
       </c>
       <c r="H7">
-        <v>11.54360060006199</v>
+        <v>17.50339222853808</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.087373880937625</v>
+        <v>8.391791043195843</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.826181663941354</v>
+        <v>12.37922815609661</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.51946117253302</v>
+        <v>18.78771469052056</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.2120454890091</v>
+        <v>20.08788669648107</v>
       </c>
       <c r="C8">
-        <v>12.47628132462163</v>
+        <v>9.3521238644769</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.18970954935897</v>
+        <v>14.38024806184002</v>
       </c>
       <c r="F8">
-        <v>31.13880867094122</v>
+        <v>40.90380289885913</v>
       </c>
       <c r="G8">
-        <v>37.77092333366981</v>
+        <v>42.40408930065492</v>
       </c>
       <c r="H8">
-        <v>11.72995949091409</v>
+        <v>17.45572847917068</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.993225394765369</v>
+        <v>8.364262254749036</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.137348207291412</v>
+        <v>12.39741393828194</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.18574890586872</v>
+        <v>18.6932881042384</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.98780201857082</v>
+        <v>21.16220242168693</v>
       </c>
       <c r="C9">
-        <v>14.09617530536354</v>
+        <v>10.05227375292161</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.249973012921288</v>
+        <v>14.33791226140816</v>
       </c>
       <c r="F9">
-        <v>33.66453719054217</v>
+        <v>41.06233973762988</v>
       </c>
       <c r="G9">
-        <v>41.7578557161739</v>
+        <v>42.88658160942133</v>
       </c>
       <c r="H9">
-        <v>12.18408811458797</v>
+        <v>17.39383419221116</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.813169721588834</v>
+        <v>8.314928154770731</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.742718302664317</v>
+        <v>12.44661804631618</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.54965034678172</v>
+        <v>18.52371388512607</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.53056204046239</v>
+        <v>21.93784272564972</v>
       </c>
       <c r="C10">
-        <v>15.19500024927589</v>
+        <v>10.5294002892041</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.307110342166462</v>
+        <v>14.3127988333959</v>
       </c>
       <c r="F10">
-        <v>35.57767213497522</v>
+        <v>41.23042971496498</v>
       </c>
       <c r="G10">
-        <v>44.74481759830913</v>
+        <v>43.31182876393977</v>
       </c>
       <c r="H10">
-        <v>12.57614849747625</v>
+        <v>17.3677679979987</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.68241942966964</v>
+        <v>8.281480373463394</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.180951792438538</v>
+        <v>12.49084789299408</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.09000459959905</v>
+        <v>18.40851875165318</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.63446062051969</v>
+        <v>22.28602367565734</v>
       </c>
       <c r="C11">
-        <v>15.67545120184601</v>
+        <v>10.73784990857374</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.336042399373653</v>
+        <v>14.30266715329063</v>
       </c>
       <c r="F11">
-        <v>36.45902335242091</v>
+        <v>41.31798034922466</v>
       </c>
       <c r="G11">
-        <v>46.11432010279463</v>
+        <v>43.52013440196104</v>
       </c>
       <c r="H11">
-        <v>12.7680875209215</v>
+        <v>17.36015249989701</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.622958964993598</v>
+        <v>8.266863801001168</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.378294240845838</v>
+        <v>12.51268147929115</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.88171828884993</v>
+        <v>18.35812769852649</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.04506107847327</v>
+        <v>22.41706867718748</v>
       </c>
       <c r="C12">
-        <v>15.85464766545833</v>
+        <v>10.81551160831713</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.347433977103545</v>
+        <v>14.29901576654846</v>
       </c>
       <c r="F12">
-        <v>36.79428744654286</v>
+        <v>41.3527132065157</v>
       </c>
       <c r="G12">
-        <v>46.63441191085859</v>
+        <v>43.60109946631201</v>
       </c>
       <c r="H12">
-        <v>12.84279789255184</v>
+        <v>17.35788053851347</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.600416320502307</v>
+        <v>8.261414424383883</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.452694000300333</v>
+        <v>12.52119167244826</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.80288375544012</v>
+        <v>18.33933334410698</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.95695806556497</v>
+        <v>22.38888355904685</v>
       </c>
       <c r="C13">
-        <v>15.81617536743381</v>
+        <v>10.79884296352434</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.344961004780524</v>
+        <v>14.29979392823647</v>
       </c>
       <c r="F13">
-        <v>36.72201560140946</v>
+        <v>41.34516288220861</v>
       </c>
       <c r="G13">
-        <v>46.52233431258826</v>
+        <v>43.5835703799973</v>
       </c>
       <c r="H13">
-        <v>12.8266163101836</v>
+        <v>17.35834260721489</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.605272944898855</v>
+        <v>8.262584246411276</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.436685884345291</v>
+        <v>12.51934814141096</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.81986176279537</v>
+        <v>18.34336827771152</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.66838865833353</v>
+        <v>22.2968216636902</v>
       </c>
       <c r="C14">
-        <v>15.6902483624159</v>
+        <v>10.74426490672641</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.336970782761616</v>
+        <v>14.30236304210475</v>
       </c>
       <c r="F14">
-        <v>36.48657561616241</v>
+        <v>41.32080628276915</v>
       </c>
       <c r="G14">
-        <v>46.15707843913408</v>
+        <v>43.5267539927545</v>
       </c>
       <c r="H14">
-        <v>12.7741929272408</v>
+        <v>17.3599533121697</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.62110507130868</v>
+        <v>8.266413764954313</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.384421957542779</v>
+        <v>12.51337678628718</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.87523221342383</v>
+        <v>18.35657572027874</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.49067045107019</v>
+        <v>22.2403226406204</v>
       </c>
       <c r="C15">
-        <v>15.61275942184129</v>
+        <v>10.71066737489201</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.33213367492298</v>
+        <v>14.30396080681818</v>
       </c>
       <c r="F15">
-        <v>36.34255778616865</v>
+        <v>41.30609236100235</v>
       </c>
       <c r="G15">
-        <v>45.9335429547011</v>
+        <v>43.49222210580486</v>
       </c>
       <c r="H15">
-        <v>12.74234832913686</v>
+        <v>17.36101964748112</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.630798373988304</v>
+        <v>8.26877058780237</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.352364832985502</v>
+        <v>12.50975058734159</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.90915086377118</v>
+        <v>18.36470307114647</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.45737124218661</v>
+        <v>21.91498289094695</v>
       </c>
       <c r="C16">
-        <v>15.16321507954221</v>
+        <v>10.51560131473691</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.305279799375862</v>
+        <v>14.31348692022974</v>
       </c>
       <c r="F16">
-        <v>35.52028883094425</v>
+        <v>41.22492993595412</v>
       </c>
       <c r="G16">
-        <v>44.65552662663637</v>
+        <v>43.29851012638816</v>
       </c>
       <c r="H16">
-        <v>12.56388445433983</v>
+        <v>17.36835121654013</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.686303282131246</v>
+        <v>8.282447608559204</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.168010875299176</v>
+        <v>12.48945514812634</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.10362643426661</v>
+        <v>18.41185226662352</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.81006549752694</v>
+        <v>21.71410599782217</v>
       </c>
       <c r="C17">
-        <v>14.88249411925542</v>
+        <v>10.39370451775441</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.289567637845002</v>
+        <v>14.31966150552764</v>
       </c>
       <c r="F17">
-        <v>35.01861791918208</v>
+        <v>41.17796893197306</v>
       </c>
       <c r="G17">
-        <v>43.87418495221953</v>
+        <v>43.18344403812178</v>
       </c>
       <c r="H17">
-        <v>12.45793420567726</v>
+        <v>17.37393682472317</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.720338875823901</v>
+        <v>8.290991054631561</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.05436898967184</v>
+        <v>12.47744052270674</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.22308534922333</v>
+        <v>18.44129086178354</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43276964582671</v>
+        <v>21.59813556793215</v>
       </c>
       <c r="C18">
-        <v>14.71919979204075</v>
+        <v>10.32278537849022</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.280806316366171</v>
+        <v>14.32333466082555</v>
       </c>
       <c r="F18">
-        <v>34.73111252279979</v>
+        <v>41.15200266949365</v>
       </c>
       <c r="G18">
-        <v>43.42578411393256</v>
+        <v>43.11866309183436</v>
       </c>
       <c r="H18">
-        <v>12.39826898754637</v>
+        <v>17.37754871870473</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.739918896684388</v>
+        <v>8.295961430428154</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.98881765455311</v>
+        <v>12.47069154097843</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.29187614080402</v>
+        <v>18.45841262035307</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.30416300010444</v>
+        <v>21.5588000879981</v>
       </c>
       <c r="C19">
-        <v>14.66359535746171</v>
+        <v>10.29863593045738</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.277886894784587</v>
+        <v>14.32459924801068</v>
       </c>
       <c r="F19">
-        <v>34.63395019367067</v>
+        <v>41.14339073981794</v>
       </c>
       <c r="G19">
-        <v>43.27413917740279</v>
+        <v>43.09697169064398</v>
       </c>
       <c r="H19">
-        <v>12.37828409693372</v>
+        <v>17.37884014546229</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.746549812665863</v>
+        <v>8.297654019242399</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.96659225710993</v>
+        <v>12.46843431206979</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.31518370050145</v>
+        <v>18.46424234347674</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.87948679657769</v>
+        <v>21.73553532208403</v>
       </c>
       <c r="C20">
-        <v>14.91256653237597</v>
+        <v>10.40676447979216</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.291211580152412</v>
+        <v>14.31899161954681</v>
       </c>
       <c r="F20">
-        <v>35.07191444184159</v>
+        <v>41.18286001292136</v>
       </c>
       <c r="G20">
-        <v>43.9572566303876</v>
+        <v>43.19554827973219</v>
       </c>
       <c r="H20">
-        <v>12.46908035853699</v>
+        <v>17.37330089728983</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.716715550808083</v>
+        <v>8.290075755716463</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.066486089628945</v>
+        <v>12.47870281288861</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.21036087814891</v>
+        <v>18.43813747703274</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.75334844840648</v>
+        <v>22.32388530119599</v>
       </c>
       <c r="C21">
-        <v>15.72731004642676</v>
+        <v>10.76033064628123</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.339305773398721</v>
+        <v>14.3016034080346</v>
       </c>
       <c r="F21">
-        <v>36.55568927493462</v>
+        <v>41.3279176727276</v>
       </c>
       <c r="G21">
-        <v>46.26432241005279</v>
+        <v>43.5433862190551</v>
       </c>
       <c r="H21">
-        <v>12.78953532574417</v>
+        <v>17.35946359014034</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.616455750939989</v>
+        <v>8.26528662354249</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.399782360466208</v>
+        <v>12.51512417593746</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.85896816640584</v>
+        <v>18.35268858076354</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.93485820192544</v>
+        <v>22.70366658796093</v>
       </c>
       <c r="C22">
-        <v>16.243857326166</v>
+        <v>10.98396860618866</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.373284172300288</v>
+        <v>14.29131876039607</v>
       </c>
       <c r="F22">
-        <v>37.53425565679402</v>
+        <v>41.43191836256759</v>
       </c>
       <c r="G22">
-        <v>47.78085892205651</v>
+        <v>43.78283930585853</v>
       </c>
       <c r="H22">
-        <v>13.010824568148</v>
+        <v>17.35398714635214</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.550761328664577</v>
+        <v>8.249584201856127</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.615677510228853</v>
+        <v>12.54033783933028</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.6294983206002</v>
+        <v>18.29851863765863</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.3081519779621</v>
+        <v>22.50144558562508</v>
       </c>
       <c r="C23">
-        <v>15.96960315897677</v>
+        <v>10.86530056307268</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.354911733757394</v>
+        <v>14.29670929340089</v>
       </c>
       <c r="F23">
-        <v>37.01118014811893</v>
+        <v>41.37557516040273</v>
       </c>
       <c r="G23">
-        <v>46.9706472502542</v>
+        <v>43.65394817751353</v>
       </c>
       <c r="H23">
-        <v>12.89160848479433</v>
+        <v>17.35658311472075</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.585849537111353</v>
+        <v>8.257919423260107</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.500638101083659</v>
+        <v>12.52675320057948</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.75198130174696</v>
+        <v>18.3272773575902</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.8481174848237</v>
+        <v>21.72584862073896</v>
       </c>
       <c r="C24">
-        <v>14.89897672894786</v>
+        <v>10.40086268158011</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.290467508165342</v>
+        <v>14.31929409089233</v>
       </c>
       <c r="F24">
-        <v>35.04781623732682</v>
+        <v>41.1806455387978</v>
       </c>
       <c r="G24">
-        <v>43.91969741877785</v>
+        <v>43.19007167429593</v>
       </c>
       <c r="H24">
-        <v>12.46403730420541</v>
+        <v>17.3735871522101</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.718353614954155</v>
+        <v>8.290489379666575</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.061008621803373</v>
+        <v>12.47813163784892</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.21611325607611</v>
+        <v>18.43956250813239</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.00352501614084</v>
+        <v>20.87336312353847</v>
       </c>
       <c r="C25">
-        <v>13.67406294679737</v>
+        <v>9.869218407931221</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.231458207362252</v>
+        <v>14.34831055864329</v>
       </c>
       <c r="F25">
-        <v>32.97054551354609</v>
+        <v>41.0103520253042</v>
       </c>
       <c r="G25">
-        <v>40.66822377229796</v>
+        <v>42.74347105280243</v>
       </c>
       <c r="H25">
-        <v>12.05128016652354</v>
+        <v>17.40718049489537</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.861512179617707</v>
+        <v>8.327780340624894</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.579864937262109</v>
+        <v>12.43187450627878</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.720111988443</v>
+        <v>18.56793064735884</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_82/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_82/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.23723175994358</v>
+        <v>23.73891699739872</v>
       </c>
       <c r="C2">
-        <v>9.452954855597929</v>
+        <v>12.71071103882073</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.37370296477407</v>
+        <v>8.196598554428057</v>
       </c>
       <c r="F2">
-        <v>40.91970542759623</v>
+        <v>31.48041306591304</v>
       </c>
       <c r="G2">
-        <v>42.46241287319923</v>
+        <v>38.31398679077574</v>
       </c>
       <c r="H2">
-        <v>17.44494420847082</v>
+        <v>11.78628544129002</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.357119370047588</v>
+        <v>4.968067412258665</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.40326378114587</v>
+        <v>8.221481740027967</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.66876304833223</v>
+        <v>12.09668747681918</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80372883384151</v>
+        <v>22.19968606757327</v>
       </c>
       <c r="C3">
-        <v>9.156335475268996</v>
+        <v>12.01944555150619</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.39343620801631</v>
+        <v>8.178125836997644</v>
       </c>
       <c r="F3">
-        <v>40.88006059933464</v>
+        <v>30.49836842888728</v>
       </c>
       <c r="G3">
-        <v>42.30234282351739</v>
+        <v>36.74869584908953</v>
       </c>
       <c r="H3">
-        <v>17.47861192361294</v>
+        <v>11.62953589312289</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.37818912054585</v>
+        <v>5.04140985861529</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.38732978367635</v>
+        <v>7.977212431663137</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.74107769181861</v>
+        <v>12.35646422799891</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.53740505981618</v>
+        <v>21.21588991047537</v>
       </c>
       <c r="C4">
-        <v>8.967433267183049</v>
+        <v>11.57623232400672</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.40680180193981</v>
+        <v>8.169260261696518</v>
       </c>
       <c r="F4">
-        <v>40.86648542452524</v>
+        <v>29.91042578090342</v>
       </c>
       <c r="G4">
-        <v>42.21920803977655</v>
+        <v>35.80488262991214</v>
       </c>
       <c r="H4">
-        <v>17.50324745534015</v>
+        <v>11.54404556195592</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.391715303096193</v>
+        <v>5.087120917123988</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.37926835209663</v>
+        <v>7.827007074031051</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.78745510616503</v>
+        <v>12.51856376524043</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.42899897456628</v>
+        <v>20.80414839121419</v>
       </c>
       <c r="C5">
-        <v>8.88881474472864</v>
+        <v>11.39094698586805</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.41256314726464</v>
+        <v>8.166261119645213</v>
       </c>
       <c r="F5">
-        <v>40.86366257474394</v>
+        <v>29.67482838754951</v>
       </c>
       <c r="G5">
-        <v>42.18915738528109</v>
+        <v>35.42502937601898</v>
       </c>
       <c r="H5">
-        <v>17.51428024435513</v>
+        <v>11.51183179730663</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.397376067721451</v>
+        <v>5.105935687120162</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.37641888799811</v>
+        <v>7.765817609856336</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.80685291464309</v>
+        <v>12.58532008442156</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.41101043527</v>
+        <v>20.73512968808028</v>
       </c>
       <c r="C6">
-        <v>8.875663203447932</v>
+        <v>11.35990015081214</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.41353884260364</v>
+        <v>8.165799912393826</v>
       </c>
       <c r="F6">
-        <v>40.86335747507965</v>
+        <v>29.63595513919863</v>
       </c>
       <c r="G6">
-        <v>42.184399075298</v>
+        <v>35.36225509721111</v>
       </c>
       <c r="H6">
-        <v>17.51617214906753</v>
+        <v>11.50663877948581</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.398325033011906</v>
+        <v>5.109071629753106</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.37597211927367</v>
+        <v>7.75566071390678</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.81010407438154</v>
+        <v>12.59644847770551</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.53594234386314</v>
+        <v>21.2103806736575</v>
       </c>
       <c r="C7">
-        <v>8.966379537682661</v>
+        <v>11.57375233914037</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.40687822619976</v>
+        <v>8.169217341542854</v>
       </c>
       <c r="F7">
-        <v>40.86643638484026</v>
+        <v>29.90723197601604</v>
       </c>
       <c r="G7">
-        <v>42.21878724968741</v>
+        <v>35.79973996047757</v>
       </c>
       <c r="H7">
-        <v>17.50339222853808</v>
+        <v>11.543600600062</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.391791043195843</v>
+        <v>5.087373880937626</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.37922815609661</v>
+        <v>7.826181663941345</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.78771469052056</v>
+        <v>12.51946117253306</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.08788669648107</v>
+        <v>23.21204548900913</v>
       </c>
       <c r="C8">
-        <v>9.3521238644769</v>
+        <v>12.4762813246216</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.38024806184002</v>
+        <v>8.189709549358968</v>
       </c>
       <c r="F8">
-        <v>40.90380289885913</v>
+        <v>31.13880867094129</v>
       </c>
       <c r="G8">
-        <v>42.40408930065492</v>
+        <v>37.77092333366998</v>
       </c>
       <c r="H8">
-        <v>17.45572847917068</v>
+        <v>11.72995949091421</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.364262254749036</v>
+        <v>4.993225394765402</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.39741393828194</v>
+        <v>8.137348207291398</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.6932881042384</v>
+        <v>12.18574890586878</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.16220242168693</v>
+        <v>26.98780201857093</v>
       </c>
       <c r="C9">
-        <v>10.05227375292161</v>
+        <v>14.09617530536353</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.33791226140816</v>
+        <v>8.249973012921288</v>
       </c>
       <c r="F9">
-        <v>41.06233973762988</v>
+        <v>33.66453719054213</v>
       </c>
       <c r="G9">
-        <v>42.88658160942133</v>
+        <v>41.75785571617388</v>
       </c>
       <c r="H9">
-        <v>17.39383419221116</v>
+        <v>12.18408811458793</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.314928154770731</v>
+        <v>4.813169721588769</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.44661804631618</v>
+        <v>8.742718302664302</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.52371388512607</v>
+        <v>11.54965034678166</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.93784272564972</v>
+        <v>29.53056204046243</v>
       </c>
       <c r="C10">
-        <v>10.5294002892041</v>
+        <v>15.19500024927569</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.3127988333959</v>
+        <v>8.307110342166451</v>
       </c>
       <c r="F10">
-        <v>41.23042971496498</v>
+        <v>35.57767213497524</v>
       </c>
       <c r="G10">
-        <v>43.31182876393977</v>
+        <v>44.74481759830915</v>
       </c>
       <c r="H10">
-        <v>17.3677679979987</v>
+        <v>12.57614849747627</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.281480373463394</v>
+        <v>4.682419429669606</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.49084789299408</v>
+        <v>9.180951792438579</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.40851875165318</v>
+        <v>11.09000459959909</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.28602367565734</v>
+        <v>30.63446062051966</v>
       </c>
       <c r="C11">
-        <v>10.73784990857374</v>
+        <v>15.67545120184599</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.30266715329063</v>
+        <v>8.33604239937373</v>
       </c>
       <c r="F11">
-        <v>41.31798034922466</v>
+        <v>36.45902335242091</v>
       </c>
       <c r="G11">
-        <v>43.52013440196104</v>
+        <v>46.11432010279458</v>
       </c>
       <c r="H11">
-        <v>17.36015249989701</v>
+        <v>12.76808752092144</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.266863801001168</v>
+        <v>4.622958964993598</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.51268147929115</v>
+        <v>9.378294240845889</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.35812769852649</v>
+        <v>10.8817182888499</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.41706867718748</v>
+        <v>31.04506107847333</v>
       </c>
       <c r="C12">
-        <v>10.81551160831713</v>
+        <v>15.85464766545835</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.29901576654846</v>
+        <v>8.347433977103588</v>
       </c>
       <c r="F12">
-        <v>41.3527132065157</v>
+        <v>36.79428744654287</v>
       </c>
       <c r="G12">
-        <v>43.60109946631201</v>
+        <v>46.63441191085867</v>
       </c>
       <c r="H12">
-        <v>17.35788053851347</v>
+        <v>12.84279789255184</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.261414424383883</v>
+        <v>4.600416320502274</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.52119167244826</v>
+        <v>9.452694000300363</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.33933334410698</v>
+        <v>10.80288375544012</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.38888355904685</v>
+        <v>30.95695806556489</v>
       </c>
       <c r="C13">
-        <v>10.79884296352434</v>
+        <v>15.8161753674338</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.29979392823647</v>
+        <v>8.344961004780515</v>
       </c>
       <c r="F13">
-        <v>41.34516288220861</v>
+        <v>36.72201560140949</v>
       </c>
       <c r="G13">
-        <v>43.5835703799973</v>
+        <v>46.52233431258821</v>
       </c>
       <c r="H13">
-        <v>17.35834260721489</v>
+        <v>12.82661631018364</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.262584246411276</v>
+        <v>4.605272944898855</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.51934814141096</v>
+        <v>9.436685884345271</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.34336827771152</v>
+        <v>10.81986176279548</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.2968216636902</v>
+        <v>30.66838865833345</v>
       </c>
       <c r="C14">
-        <v>10.74426490672641</v>
+        <v>15.69024836241605</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.30236304210475</v>
+        <v>8.336970782761604</v>
       </c>
       <c r="F14">
-        <v>41.32080628276915</v>
+        <v>36.48657561616236</v>
       </c>
       <c r="G14">
-        <v>43.5267539927545</v>
+        <v>46.15707843913396</v>
       </c>
       <c r="H14">
-        <v>17.3599533121697</v>
+        <v>12.77419292724079</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.266413764954313</v>
+        <v>4.621105071308713</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.51337678628718</v>
+        <v>9.384421957542784</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.35657572027874</v>
+        <v>10.8752322134239</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.2403226406204</v>
+        <v>30.49067045107019</v>
       </c>
       <c r="C15">
-        <v>10.71066737489201</v>
+        <v>15.61275942184123</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.30396080681818</v>
+        <v>8.332133674922863</v>
       </c>
       <c r="F15">
-        <v>41.30609236100235</v>
+        <v>36.34255778616865</v>
       </c>
       <c r="G15">
-        <v>43.49222210580486</v>
+        <v>45.93354295470115</v>
       </c>
       <c r="H15">
-        <v>17.36101964748112</v>
+        <v>12.74234832913686</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.26877058780237</v>
+        <v>4.630798373988304</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.50975058734159</v>
+        <v>9.352364832985488</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.36470307114647</v>
+        <v>10.90915086377118</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.91498289094695</v>
+        <v>29.45737124218659</v>
       </c>
       <c r="C16">
-        <v>10.51560131473691</v>
+        <v>15.1632150795423</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.31348692022974</v>
+        <v>8.305279799375915</v>
       </c>
       <c r="F16">
-        <v>41.22492993595412</v>
+        <v>35.52028883094428</v>
       </c>
       <c r="G16">
-        <v>43.29851012638816</v>
+        <v>44.65552662663637</v>
       </c>
       <c r="H16">
-        <v>17.36835121654013</v>
+        <v>12.56388445433983</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.282447608559204</v>
+        <v>4.68630328213128</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.48945514812634</v>
+        <v>9.168010875299165</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.41185226662352</v>
+        <v>11.10362643426661</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.71410599782217</v>
+        <v>28.81006549752697</v>
       </c>
       <c r="C17">
-        <v>10.39370451775441</v>
+        <v>14.88249411925534</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.31966150552764</v>
+        <v>8.289567637844883</v>
       </c>
       <c r="F17">
-        <v>41.17796893197306</v>
+        <v>35.01861791918206</v>
       </c>
       <c r="G17">
-        <v>43.18344403812178</v>
+        <v>43.87418495221957</v>
       </c>
       <c r="H17">
-        <v>17.37393682472317</v>
+        <v>12.45793420567724</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.290991054631561</v>
+        <v>4.7203388758238</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.47744052270674</v>
+        <v>9.054368989671801</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.44129086178354</v>
+        <v>11.22308534922323</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.59813556793215</v>
+        <v>28.43276964582668</v>
       </c>
       <c r="C18">
-        <v>10.32278537849022</v>
+        <v>14.71919979204074</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.32333466082555</v>
+        <v>8.280806316366007</v>
       </c>
       <c r="F18">
-        <v>41.15200266949365</v>
+        <v>34.73111252279981</v>
       </c>
       <c r="G18">
-        <v>43.11866309183436</v>
+        <v>43.42578411393257</v>
       </c>
       <c r="H18">
-        <v>17.37754871870473</v>
+        <v>12.39826898754641</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.295961430428154</v>
+        <v>4.739918896684353</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.47069154097843</v>
+        <v>8.988817654553056</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.45841262035307</v>
+        <v>11.29187614080412</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.5588000879981</v>
+        <v>28.3041630001044</v>
       </c>
       <c r="C19">
-        <v>10.29863593045738</v>
+        <v>14.66359535746171</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.32459924801068</v>
+        <v>8.277886894784583</v>
       </c>
       <c r="F19">
-        <v>41.14339073981794</v>
+        <v>34.63395019367062</v>
       </c>
       <c r="G19">
-        <v>43.09697169064398</v>
+        <v>43.27413917740273</v>
       </c>
       <c r="H19">
-        <v>17.37884014546229</v>
+        <v>12.3782840969337</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.297654019242399</v>
+        <v>4.746549812665862</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.46843431206979</v>
+        <v>8.966592257109927</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.46424234347674</v>
+        <v>11.31518370050139</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73553532208403</v>
+        <v>28.87948679657764</v>
       </c>
       <c r="C20">
-        <v>10.40676447979216</v>
+        <v>14.91256653237597</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.31899161954681</v>
+        <v>8.291211580152416</v>
       </c>
       <c r="F20">
-        <v>41.18286001292136</v>
+        <v>35.07191444184167</v>
       </c>
       <c r="G20">
-        <v>43.19554827973219</v>
+        <v>43.95725663038768</v>
       </c>
       <c r="H20">
-        <v>17.37330089728983</v>
+        <v>12.46908035853703</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.290075755716463</v>
+        <v>4.71671555080815</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.47870281288861</v>
+        <v>9.066486089628944</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.43813747703274</v>
+        <v>11.21036087814898</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.32388530119599</v>
+        <v>30.75334844840648</v>
       </c>
       <c r="C21">
-        <v>10.76033064628123</v>
+        <v>15.72731004642648</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.3016034080346</v>
+        <v>8.339305773398715</v>
       </c>
       <c r="F21">
-        <v>41.3279176727276</v>
+        <v>36.55568927493466</v>
       </c>
       <c r="G21">
-        <v>43.5433862190551</v>
+        <v>46.26432241005278</v>
       </c>
       <c r="H21">
-        <v>17.35946359014034</v>
+        <v>12.78953532574418</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.26528662354249</v>
+        <v>4.616455750940022</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.51512417593746</v>
+        <v>9.399782360466236</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.35268858076354</v>
+        <v>10.85896816640584</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.70366658796093</v>
+        <v>31.93485820192544</v>
       </c>
       <c r="C22">
-        <v>10.98396860618866</v>
+        <v>16.24385732616599</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.29131876039607</v>
+        <v>8.373284172300398</v>
       </c>
       <c r="F22">
-        <v>41.43191836256759</v>
+        <v>37.53425565679403</v>
       </c>
       <c r="G22">
-        <v>43.78283930585853</v>
+        <v>47.78085892205651</v>
       </c>
       <c r="H22">
-        <v>17.35398714635214</v>
+        <v>13.01082456814799</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.249584201856127</v>
+        <v>4.550761328664644</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.54033783933028</v>
+        <v>9.615677510228887</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.29851863765863</v>
+        <v>10.6294983206002</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.50144558562508</v>
+        <v>31.30815197796201</v>
       </c>
       <c r="C23">
-        <v>10.86530056307268</v>
+        <v>15.96960315897678</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.29670929340089</v>
+        <v>8.354911733757445</v>
       </c>
       <c r="F23">
-        <v>41.37557516040273</v>
+        <v>37.01118014811895</v>
       </c>
       <c r="G23">
-        <v>43.65394817751353</v>
+        <v>46.9706472502542</v>
       </c>
       <c r="H23">
-        <v>17.35658311472075</v>
+        <v>12.89160848479434</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.257919423260107</v>
+        <v>4.58584953711142</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.52675320057948</v>
+        <v>9.500638101083684</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.3272773575902</v>
+        <v>10.75198130174696</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.72584862073896</v>
+        <v>28.84811748482376</v>
       </c>
       <c r="C24">
-        <v>10.40086268158011</v>
+        <v>14.89897672894786</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.31929409089233</v>
+        <v>8.290467508165282</v>
       </c>
       <c r="F24">
-        <v>41.1806455387978</v>
+        <v>35.04781623732676</v>
       </c>
       <c r="G24">
-        <v>43.19007167429593</v>
+        <v>43.91969741877783</v>
       </c>
       <c r="H24">
-        <v>17.3735871522101</v>
+        <v>12.46403730420535</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.290489379666575</v>
+        <v>4.718353614954089</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.47813163784892</v>
+        <v>9.061008621803357</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.43956250813239</v>
+        <v>11.21611325607605</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.87336312353847</v>
+        <v>26.00352501614081</v>
       </c>
       <c r="C25">
-        <v>9.869218407931221</v>
+        <v>13.67406294679735</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.34831055864329</v>
+        <v>8.231458207362142</v>
       </c>
       <c r="F25">
-        <v>41.0103520253042</v>
+        <v>32.97054551354617</v>
       </c>
       <c r="G25">
-        <v>42.74347105280243</v>
+        <v>40.66822377229809</v>
       </c>
       <c r="H25">
-        <v>17.40718049489537</v>
+        <v>12.05128016652359</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.327780340624894</v>
+        <v>4.861512179617776</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.43187450627878</v>
+        <v>8.579864937262091</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.56793064735884</v>
+        <v>11.72011198844307</v>
       </c>
       <c r="O25">
         <v>0</v>
